--- a/analysis/mails_01/P08_7/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_7/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -69,6 +69,12 @@
     <t xml:space="preserve">2020-08-09</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9846</t>
+  </si>
+  <si>
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
@@ -99,6 +105,12 @@
     <t xml:space="preserve">MFD06934</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9844</t>
+  </si>
+  <si>
     <t xml:space="preserve">6120</t>
   </si>
   <si>
@@ -120,6 +132,9 @@
     <t xml:space="preserve">MFD06936</t>
   </si>
   <si>
+    <t xml:space="preserve">9.9845</t>
+  </si>
+  <si>
     <t xml:space="preserve">B24</t>
   </si>
   <si>
@@ -132,6 +147,9 @@
     <t xml:space="preserve">MFD06938</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0144</t>
+  </si>
+  <si>
     <t xml:space="preserve">C39</t>
   </si>
   <si>
@@ -210,6 +228,12 @@
     <t xml:space="preserve">2020-08-18</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9853</t>
+  </si>
+  <si>
     <t xml:space="preserve">D48</t>
   </si>
   <si>
@@ -219,6 +243,9 @@
     <t xml:space="preserve">2020-08-07</t>
   </si>
   <si>
+    <t xml:space="preserve">9.9847</t>
+  </si>
+  <si>
     <t xml:space="preserve">D29</t>
   </si>
   <si>
@@ -228,12 +255,18 @@
     <t xml:space="preserve">2020-08-05</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0147</t>
+  </si>
+  <si>
     <t xml:space="preserve">E22</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09194</t>
   </si>
   <si>
+    <t xml:space="preserve">9.9849</t>
+  </si>
+  <si>
     <t xml:space="preserve">E30</t>
   </si>
   <si>
@@ -243,6 +276,9 @@
     <t xml:space="preserve">2020-08-03</t>
   </si>
   <si>
+    <t xml:space="preserve">9.9851</t>
+  </si>
+  <si>
     <t xml:space="preserve">C26</t>
   </si>
   <si>
@@ -279,12 +315,18 @@
     <t xml:space="preserve">MFD09201</t>
   </si>
   <si>
+    <t xml:space="preserve">9.9854</t>
+  </si>
+  <si>
     <t xml:space="preserve">D24</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09202</t>
   </si>
   <si>
+    <t xml:space="preserve">9.9848</t>
+  </si>
+  <si>
     <t xml:space="preserve">D35</t>
   </si>
   <si>
@@ -333,6 +375,9 @@
     <t xml:space="preserve">MFD09210</t>
   </si>
   <si>
+    <t xml:space="preserve">9.9852</t>
+  </si>
+  <si>
     <t xml:space="preserve">D25</t>
   </si>
   <si>
@@ -363,6 +408,9 @@
     <t xml:space="preserve">MFD09215</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0148</t>
+  </si>
+  <si>
     <t xml:space="preserve">F29</t>
   </si>
   <si>
@@ -441,6 +489,9 @@
     <t xml:space="preserve">MFD09226</t>
   </si>
   <si>
+    <t xml:space="preserve">9.985</t>
+  </si>
+  <si>
     <t xml:space="preserve">D43</t>
   </si>
   <si>
@@ -462,6 +513,9 @@
     <t xml:space="preserve">MFD09230</t>
   </si>
   <si>
+    <t xml:space="preserve">57.0149</t>
+  </si>
+  <si>
     <t xml:space="preserve">A43</t>
   </si>
   <si>
@@ -493,6 +547,9 @@
   </si>
   <si>
     <t xml:space="preserve">MFD09235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9843</t>
   </si>
   <si>
     <t xml:space="preserve">F39</t>
@@ -1418,44 +1475,44 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.9846</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1463,44 +1520,44 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.9844</v>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1508,44 +1565,44 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.9844</v>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1553,44 +1610,44 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.9845</v>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1598,44 +1655,44 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.9844</v>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1643,4849 +1700,4849 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
-        <v>57.0144</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.9845</v>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57.0144</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.9845</v>
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.9844</v>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.9844</v>
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.9845</v>
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="n">
-        <v>57.0144</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.9845</v>
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.9853</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.9847</v>
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.9847</v>
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.9849</v>
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.9851</v>
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.9847</v>
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.9847</v>
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.9849</v>
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.9847</v>
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.9847</v>
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="n">
-        <v>57.0144</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.9854</v>
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E24" t="n">
-        <v>9.9848</v>
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N24" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E25" t="n">
-        <v>9.9847</v>
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.9849</v>
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N26" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.9853</v>
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.9847</v>
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.9854</v>
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9.9848</v>
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="O30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E31" t="n">
-        <v>9.9853</v>
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N31" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="O31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E32" t="n">
-        <v>9.9852</v>
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N32" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.9849</v>
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N33" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="O33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="n">
-        <v>57.0144</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9.9854</v>
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="O34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9.9853</v>
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N35" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9.9847</v>
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N36" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="n">
-        <v>57.0148</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9.9847</v>
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="O37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E38" t="n">
-        <v>9.9847</v>
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="O38" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E39" t="n">
-        <v>9.9847</v>
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N39" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="O39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E40" t="n">
-        <v>9.9848</v>
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="n">
-        <v>57.0148</v>
-      </c>
-      <c r="E41" t="n">
-        <v>9.9847</v>
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L41" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M41" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="O41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.9853</v>
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M42" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N42" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E43" t="n">
-        <v>9.9851</v>
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M43" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N43" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="O43" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E44" t="n">
-        <v>9.9848</v>
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L44" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M44" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N44" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9.9849</v>
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L45" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M45" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N45" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="O45" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E46" t="n">
-        <v>9.9847</v>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N46" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9.9847</v>
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L47" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M47" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N47" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O47" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
         <v>64</v>
-      </c>
-      <c r="D48" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E48" t="n">
-        <v>9.985</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>58</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L48" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N48" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="O48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" t="n">
-        <v>57.0148</v>
-      </c>
-      <c r="E49" t="n">
-        <v>9.9847</v>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9.9852</v>
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M50" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N50" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9.985</v>
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="O51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="n">
-        <v>57.0149</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9.9844</v>
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N52" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O52" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9.985</v>
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L53" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N53" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="O53" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" t="n">
-        <v>57.0149</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.9844</v>
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M54" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N54" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O54" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.9849</v>
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>83</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L55" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N55" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E56" t="n">
-        <v>9.9851</v>
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N56" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="O56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" t="n">
-        <v>57.0149</v>
-      </c>
-      <c r="E57" t="n">
-        <v>9.9843</v>
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" t="s">
+        <v>178</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L57" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M57" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E58" t="n">
-        <v>9.9849</v>
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>83</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N58" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E59" t="n">
-        <v>9.9851</v>
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M59" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N59" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9.9853</v>
+        <v>169</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="s">
+        <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L60" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="O60" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9.9849</v>
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L61" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M61" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="O61" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
         <v>64</v>
-      </c>
-      <c r="D62" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9.9847</v>
-      </c>
-      <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>58</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L62" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N62" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.9848</v>
+        <v>169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>103</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L63" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M63" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N63" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" t="n">
-        <v>57.0148</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.9847</v>
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L64" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M64" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N64" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9.9849</v>
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>83</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L65" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M65" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N65" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O65" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9.9847</v>
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E67" t="n">
-        <v>9.9847</v>
+        <v>169</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L67" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M67" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N67" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="O67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E68" t="n">
-        <v>9.9853</v>
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N68" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E69" t="n">
-        <v>9.9847</v>
+        <v>56</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L69" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M69" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N69" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="O69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E70" t="n">
-        <v>9.985</v>
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>158</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9.9849</v>
+        <v>201</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>83</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M71" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N71" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E72" t="n">
-        <v>9.9848</v>
+        <v>137</v>
+      </c>
+      <c r="D72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" t="s">
+        <v>103</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M72" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N72" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="O72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9.9854</v>
+        <v>137</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" t="s">
+        <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N73" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="O73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9.9853</v>
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" t="s">
+        <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L74" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M74" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N74" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O74" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9.9851</v>
+        <v>201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>87</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M75" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N75" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="O75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" t="n">
-        <v>57.0148</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9.9847</v>
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" t="s">
+        <v>76</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L76" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M76" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N76" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O76" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9.9847</v>
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" t="s">
+        <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K77" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L77" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M77" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N77" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9.9849</v>
+        <v>201</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M78" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N78" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E79" t="n">
-        <v>9.985</v>
+        <v>201</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>158</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M79" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N79" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D80" t="n">
-        <v>57.0148</v>
-      </c>
-      <c r="E80" t="n">
-        <v>9.9847</v>
+        <v>134</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
+        <v>76</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N80" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="O80" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E81" t="n">
-        <v>9.9849</v>
+        <v>201</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>83</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L81" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M81" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N81" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
         <v>64</v>
-      </c>
-      <c r="D82" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E82" t="n">
-        <v>9.985</v>
-      </c>
-      <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>58</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L82" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M82" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N82" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="O82" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E83" t="n">
-        <v>9.985</v>
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L83" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M83" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N83" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="O83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E84" t="n">
-        <v>9.9848</v>
+        <v>201</v>
+      </c>
+      <c r="D84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" t="s">
+        <v>103</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L84" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M84" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N84" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
-      </c>
-      <c r="D85" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E85" t="n">
-        <v>9.9848</v>
+        <v>236</v>
+      </c>
+      <c r="D85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" t="s">
+        <v>103</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M85" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N85" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="O85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D86" t="n">
-        <v>57.0148</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9.9847</v>
+        <v>70</v>
+      </c>
+      <c r="D86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" t="s">
+        <v>76</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L86" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M86" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N86" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="O86" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9.9849</v>
+        <v>70</v>
+      </c>
+      <c r="D87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" t="s">
+        <v>83</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G87" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L87" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M87" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N87" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="O87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>217</v>
-      </c>
-      <c r="D88" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.985</v>
+        <v>236</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L88" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M88" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N88" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="O88" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9.9851</v>
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" t="s">
+        <v>87</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M89" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N89" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="O89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
-      </c>
-      <c r="D90" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E90" t="n">
-        <v>9.9851</v>
+        <v>236</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L90" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M90" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N90" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="O90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E91" t="n">
-        <v>9.9848</v>
+        <v>134</v>
+      </c>
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" t="s">
+        <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J91" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L91" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N91" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="O91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E92" t="n">
-        <v>9.985</v>
+        <v>236</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J92" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M92" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N92" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="O92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E93" t="n">
-        <v>9.9847</v>
+        <v>56</v>
+      </c>
+      <c r="D93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" t="s">
+        <v>76</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K93" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L93" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M93" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N93" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="O93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E94" t="n">
-        <v>9.985</v>
+        <v>169</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>158</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L94" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M94" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N94" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="O94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E95" t="n">
-        <v>9.985</v>
+        <v>169</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>158</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J95" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L95" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M95" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N95" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="O95" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E96" t="n">
-        <v>9.9847</v>
+        <v>169</v>
+      </c>
+      <c r="D96" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" t="s">
+        <v>76</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J96" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L96" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M96" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N96" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="O96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" t="n">
-        <v>57.0146</v>
-      </c>
-      <c r="E97" t="n">
-        <v>9.985</v>
+        <v>236</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>158</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J97" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L97" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M97" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N97" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="O97" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
         <v>64</v>
-      </c>
-      <c r="D98" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9.9848</v>
-      </c>
-      <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>58</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L98" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M98" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N98" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="O98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>64</v>
-      </c>
-      <c r="D99" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E99" t="n">
-        <v>9.9848</v>
+        <v>70</v>
+      </c>
+      <c r="D99" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" t="s">
+        <v>103</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J99" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L99" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M99" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N99" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="O99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>118</v>
-      </c>
-      <c r="D100" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E100" t="n">
-        <v>9.9847</v>
+        <v>134</v>
+      </c>
+      <c r="D100" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" t="s">
+        <v>76</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N100" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="O100" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
-      </c>
-      <c r="D101" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E101" t="n">
-        <v>9.9853</v>
+        <v>236</v>
+      </c>
+      <c r="D101" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101" t="s">
+        <v>72</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J101" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L101" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M101" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N101" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="O101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>217</v>
-      </c>
-      <c r="D102" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9.9847</v>
+        <v>236</v>
+      </c>
+      <c r="D102" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" t="s">
+        <v>76</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J102" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L102" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M102" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N102" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="O102" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D103" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E103" t="n">
-        <v>9.9848</v>
+        <v>70</v>
+      </c>
+      <c r="D103" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103" t="s">
+        <v>103</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J103" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L103" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M103" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N103" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="O103" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E104" t="s">
+        <v>76</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
         <v>64</v>
-      </c>
-      <c r="D104" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E104" t="n">
-        <v>9.9847</v>
-      </c>
-      <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>58</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J104" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L104" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M104" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N104" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="O104" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E105" t="s">
+        <v>76</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
         <v>64</v>
-      </c>
-      <c r="D105" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9.9847</v>
-      </c>
-      <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>58</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J105" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L105" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M105" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N105" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>50</v>
-      </c>
-      <c r="D106" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E106" t="n">
-        <v>9.9847</v>
+        <v>56</v>
+      </c>
+      <c r="D106" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106" t="s">
+        <v>76</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J106" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L106" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M106" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N106" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="O106" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
-      </c>
-      <c r="D107" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9.9847</v>
+        <v>201</v>
+      </c>
+      <c r="D107" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" t="s">
+        <v>76</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L107" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M107" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N107" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="O107" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
-      </c>
-      <c r="D108" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E108" t="n">
-        <v>9.9848</v>
+        <v>169</v>
+      </c>
+      <c r="D108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" t="s">
+        <v>103</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J108" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L108" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M108" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N108" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="O108" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
-      </c>
-      <c r="D109" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9.9847</v>
+        <v>236</v>
+      </c>
+      <c r="D109" t="s">
+        <v>80</v>
+      </c>
+      <c r="E109" t="s">
+        <v>76</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K109" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L109" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M109" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N109" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="O109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
-      </c>
-      <c r="D110" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E110" t="n">
-        <v>9.9848</v>
+        <v>236</v>
+      </c>
+      <c r="D110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" t="s">
+        <v>103</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J110" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L110" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M110" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="N110" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="O110" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" t="s">
+        <v>76</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
         <v>64</v>
-      </c>
-      <c r="D111" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9.9847</v>
-      </c>
-      <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>58</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L111" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M111" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N111" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="O111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" t="s">
+        <v>76</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
         <v>64</v>
-      </c>
-      <c r="D112" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9.9847</v>
-      </c>
-      <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>58</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J112" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K112" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L112" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M112" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N112" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="O112" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
-      </c>
-      <c r="D113" t="n">
-        <v>57.0147</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9.9848</v>
+        <v>169</v>
+      </c>
+      <c r="D113" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" t="s">
+        <v>103</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L113" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M113" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N113" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="O113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>57</v>
-      </c>
-      <c r="D114" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9.9845</v>
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" t="s">
+        <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J114" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L114" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M114" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N114" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="O114" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -6493,89 +6550,89 @@
       <c r="C115" t="s">
         <v>17</v>
       </c>
-      <c r="D115" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9.9844</v>
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" t="s">
+        <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L115" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N115" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="O115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9.9845</v>
+        <v>169</v>
+      </c>
+      <c r="D116" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" t="s">
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J116" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K116" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L116" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M116" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N116" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="O116" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -6583,179 +6640,179 @@
       <c r="C117" t="s">
         <v>17</v>
       </c>
-      <c r="D117" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9.9845</v>
+      <c r="D117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" t="s">
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L117" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N117" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="O117" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
-      </c>
-      <c r="D118" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9.9844</v>
+        <v>169</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J118" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K118" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L118" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M118" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N118" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="O118" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9.9845</v>
+        <v>47</v>
+      </c>
+      <c r="D119" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K119" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L119" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M119" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N119" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="O119" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
-      </c>
-      <c r="D120" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9.9846</v>
+        <v>169</v>
+      </c>
+      <c r="D120" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J120" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K120" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L120" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M120" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N120" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="O120" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -6763,134 +6820,134 @@
       <c r="C121" t="s">
         <v>17</v>
       </c>
-      <c r="D121" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9.9844</v>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" t="s">
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K121" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L121" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M121" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N121" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="O121" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9.9846</v>
+        <v>47</v>
+      </c>
+      <c r="D122" t="s">
+        <v>71</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K122" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L122" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M122" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N122" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="O122" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
-      </c>
-      <c r="D123" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9.9844</v>
+        <v>47</v>
+      </c>
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" t="s">
+        <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K123" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L123" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M123" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N123" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="O123" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -6898,44 +6955,44 @@
       <c r="C124" t="s">
         <v>17</v>
       </c>
-      <c r="D124" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9.9844</v>
+      <c r="D124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" t="s">
+        <v>31</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G124" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J124" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K124" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N124" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="O124" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -6943,179 +7000,179 @@
       <c r="C125" t="s">
         <v>17</v>
       </c>
-      <c r="D125" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9.9845</v>
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" t="s">
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G125" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K125" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L125" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M125" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N125" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="O125" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
-      </c>
-      <c r="D126" t="n">
-        <v>57.0144</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9.9845</v>
+        <v>169</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J126" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K126" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L126" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M126" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N126" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="O126" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
-      </c>
-      <c r="D127" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9.9844</v>
+        <v>75</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L127" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M127" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N127" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="O127" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
-      </c>
-      <c r="D128" t="n">
-        <v>57.0144</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.9846</v>
+        <v>47</v>
+      </c>
+      <c r="D128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J128" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K128" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L128" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M128" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N128" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="O128" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -7123,44 +7180,44 @@
       <c r="C129" t="s">
         <v>17</v>
       </c>
-      <c r="D129" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.9844</v>
+      <c r="D129" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" t="s">
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K129" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M129" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N129" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="O129" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -7168,89 +7225,89 @@
       <c r="C130" t="s">
         <v>17</v>
       </c>
-      <c r="D130" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.9844</v>
+      <c r="D130" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" t="s">
+        <v>31</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J130" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K130" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L130" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M130" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N130" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="O130" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>57</v>
-      </c>
-      <c r="D131" t="n">
-        <v>57.0145</v>
-      </c>
-      <c r="E131" t="n">
-        <v>9.9846</v>
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>71</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K131" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L131" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M131" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N131" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="O131" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
@@ -7258,44 +7315,44 @@
       <c r="C132" t="s">
         <v>17</v>
       </c>
-      <c r="D132" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E132" t="n">
-        <v>9.9845</v>
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" t="s">
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G132" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J132" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M132" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N132" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="O132" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -7303,39 +7360,39 @@
       <c r="C133" t="s">
         <v>17</v>
       </c>
-      <c r="D133" t="n">
-        <v>57.0143</v>
-      </c>
-      <c r="E133" t="n">
-        <v>9.9844</v>
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" t="s">
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G133" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J133" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K133" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L133" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M133" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N133" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="O133" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7354,10 +7411,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -7365,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
@@ -7373,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
@@ -7381,7 +7438,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
@@ -7389,7 +7446,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
@@ -7397,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
@@ -7405,7 +7462,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
@@ -7413,7 +7470,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
@@ -7421,7 +7478,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10">
@@ -7429,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
@@ -7437,7 +7494,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12">
@@ -7445,7 +7502,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
@@ -7453,7 +7510,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14">
@@ -7461,7 +7518,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15">
@@ -7469,7 +7526,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_7/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_7/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -189,13 +189,7 @@
     <t xml:space="preserve">4010</t>
   </si>
   <si>
-    <t xml:space="preserve">Heath and scrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperate heath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wet heath</t>
+    <t xml:space="preserve">Temperate heath and scrub</t>
   </si>
   <si>
     <t xml:space="preserve">E46</t>
@@ -208,9 +202,6 @@
   </si>
   <si>
     <t xml:space="preserve">4030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry heath</t>
   </si>
   <si>
     <t xml:space="preserve">D33</t>
@@ -1857,14 +1848,10 @@
       <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" t="s">
         <v>59</v>
-      </c>
-      <c r="M10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" t="s">
-        <v>61</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
@@ -1872,13 +1859,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1890,7 +1877,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
@@ -1902,14 +1889,10 @@
       <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
         <v>28</v>
@@ -1917,7 +1900,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1954,7 +1937,7 @@
         <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O12" t="s">
         <v>28</v>
@@ -1962,25 +1945,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
@@ -1992,14 +1975,10 @@
       <c r="K13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" t="s">
-        <v>65</v>
-      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O13" t="s">
         <v>28</v>
@@ -2007,25 +1986,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
@@ -2037,14 +2016,10 @@
       <c r="K14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" t="s">
-        <v>65</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O14" t="s">
         <v>28</v>
@@ -2052,19 +2027,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2082,14 +2057,10 @@
       <c r="K15" t="s">
         <v>58</v>
       </c>
-      <c r="L15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" t="s">
-        <v>60</v>
-      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
@@ -2097,19 +2068,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
         <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -2127,14 +2098,10 @@
       <c r="K16" t="s">
         <v>58</v>
       </c>
-      <c r="L16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" t="s">
-        <v>60</v>
-      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
         <v>28</v>
@@ -2142,19 +2109,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -2179,7 +2146,7 @@
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O17" t="s">
         <v>28</v>
@@ -2187,19 +2154,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2217,14 +2184,10 @@
       <c r="K18" t="s">
         <v>58</v>
       </c>
-      <c r="L18" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" t="s">
-        <v>60</v>
-      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O18" t="s">
         <v>28</v>
@@ -2232,7 +2195,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -2241,10 +2204,10 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2269,7 +2232,7 @@
         <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O19" t="s">
         <v>28</v>
@@ -2277,19 +2240,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2314,7 +2277,7 @@
         <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O20" t="s">
         <v>28</v>
@@ -2322,25 +2285,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
@@ -2352,14 +2315,10 @@
       <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="L21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" t="s">
-        <v>65</v>
-      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O21" t="s">
         <v>28</v>
@@ -2367,25 +2326,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
@@ -2397,14 +2356,10 @@
       <c r="K22" t="s">
         <v>58</v>
       </c>
-      <c r="L22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" t="s">
-        <v>65</v>
-      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O22" t="s">
         <v>28</v>
@@ -2412,25 +2367,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
@@ -2442,14 +2397,10 @@
       <c r="K23" t="s">
         <v>58</v>
       </c>
-      <c r="L23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" t="s">
-        <v>65</v>
-      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O23" t="s">
         <v>28</v>
@@ -2457,25 +2408,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
@@ -2487,14 +2438,10 @@
       <c r="K24" t="s">
         <v>58</v>
       </c>
-      <c r="L24" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" t="s">
-        <v>65</v>
-      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O24" t="s">
         <v>28</v>
@@ -2502,19 +2449,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -2539,7 +2486,7 @@
         <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O25" t="s">
         <v>28</v>
@@ -2547,25 +2494,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
@@ -2577,14 +2524,10 @@
       <c r="K26" t="s">
         <v>58</v>
       </c>
-      <c r="L26" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" t="s">
-        <v>65</v>
-      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O26" t="s">
         <v>28</v>
@@ -2592,25 +2535,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
@@ -2622,14 +2565,10 @@
       <c r="K27" t="s">
         <v>58</v>
       </c>
-      <c r="L27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" t="s">
-        <v>65</v>
-      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O27" t="s">
         <v>28</v>
@@ -2637,19 +2576,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
@@ -2674,7 +2613,7 @@
         <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O28" t="s">
         <v>28</v>
@@ -2682,19 +2621,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
@@ -2719,7 +2658,7 @@
         <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O29" t="s">
         <v>28</v>
@@ -2727,25 +2666,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
@@ -2757,14 +2696,10 @@
       <c r="K30" t="s">
         <v>58</v>
       </c>
-      <c r="L30" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" t="s">
-        <v>65</v>
-      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O30" t="s">
         <v>28</v>
@@ -2772,19 +2707,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
@@ -2802,14 +2737,10 @@
       <c r="K31" t="s">
         <v>58</v>
       </c>
-      <c r="L31" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" t="s">
-        <v>60</v>
-      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O31" t="s">
         <v>28</v>
@@ -2817,25 +2748,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
@@ -2847,14 +2778,10 @@
       <c r="K32" t="s">
         <v>58</v>
       </c>
-      <c r="L32" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" t="s">
-        <v>65</v>
-      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O32" t="s">
         <v>28</v>
@@ -2862,25 +2789,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
         <v>80</v>
       </c>
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2892,14 +2819,10 @@
       <c r="K33" t="s">
         <v>58</v>
       </c>
-      <c r="L33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" t="s">
-        <v>65</v>
-      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O33" t="s">
         <v>28</v>
@@ -2907,19 +2830,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -2944,7 +2867,7 @@
         <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O34" t="s">
         <v>28</v>
@@ -2952,19 +2875,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -2982,14 +2905,10 @@
       <c r="K35" t="s">
         <v>58</v>
       </c>
-      <c r="L35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" t="s">
-        <v>60</v>
-      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O35" t="s">
         <v>28</v>
@@ -2997,25 +2916,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
@@ -3027,14 +2946,10 @@
       <c r="K36" t="s">
         <v>58</v>
       </c>
-      <c r="L36" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" t="s">
-        <v>65</v>
-      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O36" t="s">
         <v>28</v>
@@ -3042,7 +2957,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -3051,10 +2966,10 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -3079,7 +2994,7 @@
         <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O37" t="s">
         <v>28</v>
@@ -3087,19 +3002,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -3124,7 +3039,7 @@
         <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O38" t="s">
         <v>28</v>
@@ -3132,25 +3047,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -3166,10 +3081,10 @@
         <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O39" t="s">
         <v>28</v>
@@ -3177,19 +3092,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
@@ -3207,14 +3122,10 @@
       <c r="K40" t="s">
         <v>58</v>
       </c>
-      <c r="L40" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" t="s">
-        <v>60</v>
-      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -3222,19 +3133,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -3252,14 +3163,10 @@
       <c r="K41" t="s">
         <v>58</v>
       </c>
-      <c r="L41" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" t="s">
-        <v>60</v>
-      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s">
         <v>28</v>
@@ -3267,19 +3174,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
@@ -3297,14 +3204,10 @@
       <c r="K42" t="s">
         <v>58</v>
       </c>
-      <c r="L42" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" t="s">
-        <v>60</v>
-      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O42" t="s">
         <v>28</v>
@@ -3312,19 +3215,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -3342,14 +3245,10 @@
       <c r="K43" t="s">
         <v>58</v>
       </c>
-      <c r="L43" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" t="s">
-        <v>60</v>
-      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O43" t="s">
         <v>28</v>
@@ -3357,19 +3256,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
@@ -3387,14 +3286,10 @@
       <c r="K44" t="s">
         <v>58</v>
       </c>
-      <c r="L44" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" t="s">
-        <v>60</v>
-      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O44" t="s">
         <v>28</v>
@@ -3402,7 +3297,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -3411,10 +3306,10 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
         <v>80</v>
-      </c>
-      <c r="E45" t="s">
-        <v>83</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
@@ -3432,14 +3327,10 @@
       <c r="K45" t="s">
         <v>58</v>
       </c>
-      <c r="L45" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" t="s">
-        <v>60</v>
-      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O45" t="s">
         <v>28</v>
@@ -3447,25 +3338,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -3481,10 +3372,10 @@
         <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O46" t="s">
         <v>28</v>
@@ -3492,19 +3383,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
@@ -3522,14 +3413,10 @@
       <c r="K47" t="s">
         <v>58</v>
       </c>
-      <c r="L47" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" t="s">
-        <v>60</v>
-      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
       <c r="N47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -3537,25 +3424,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
@@ -3567,14 +3454,10 @@
       <c r="K48" t="s">
         <v>58</v>
       </c>
-      <c r="L48" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" t="s">
-        <v>65</v>
-      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
       <c r="N48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -3582,17 +3465,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
@@ -3609,7 +3492,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -3617,19 +3500,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
@@ -3654,7 +3537,7 @@
         <v>34</v>
       </c>
       <c r="N50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O50" t="s">
         <v>28</v>
@@ -3662,19 +3545,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -3699,7 +3582,7 @@
         <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O51" t="s">
         <v>28</v>
@@ -3707,16 +3590,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
         <v>31</v>
@@ -3725,7 +3608,7 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
@@ -3741,10 +3624,10 @@
         <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -3752,19 +3635,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
@@ -3789,7 +3672,7 @@
         <v>51</v>
       </c>
       <c r="N53" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -3797,16 +3680,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
         <v>31</v>
@@ -3815,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
@@ -3831,10 +3714,10 @@
         <v>25</v>
       </c>
       <c r="M54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -3842,19 +3725,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
@@ -3879,7 +3762,7 @@
         <v>51</v>
       </c>
       <c r="N55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O55" t="s">
         <v>28</v>
@@ -3887,25 +3770,25 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
@@ -3921,10 +3804,10 @@
         <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N56" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O56" t="s">
         <v>28</v>
@@ -3932,19 +3815,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -3969,7 +3852,7 @@
         <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -3977,25 +3860,25 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
@@ -4011,10 +3894,10 @@
         <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -4022,7 +3905,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -4034,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
@@ -4052,14 +3935,10 @@
       <c r="K59" t="s">
         <v>58</v>
       </c>
-      <c r="L59" t="s">
-        <v>59</v>
-      </c>
-      <c r="M59" t="s">
-        <v>60</v>
-      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
       <c r="N59" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -4067,19 +3946,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
@@ -4104,7 +3983,7 @@
         <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O60" t="s">
         <v>28</v>
@@ -4112,19 +3991,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
         <v>80</v>
-      </c>
-      <c r="E61" t="s">
-        <v>83</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
@@ -4149,7 +4028,7 @@
         <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" t="s">
         <v>28</v>
@@ -4157,25 +4036,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" t="s">
@@ -4187,14 +4066,10 @@
       <c r="K62" t="s">
         <v>58</v>
       </c>
-      <c r="L62" t="s">
-        <v>59</v>
-      </c>
-      <c r="M62" t="s">
-        <v>65</v>
-      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
       <c r="N62" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -4202,19 +4077,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
@@ -4239,7 +4114,7 @@
         <v>51</v>
       </c>
       <c r="N63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -4247,7 +4122,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -4256,10 +4131,10 @@
         <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
@@ -4277,14 +4152,10 @@
       <c r="K64" t="s">
         <v>58</v>
       </c>
-      <c r="L64" t="s">
-        <v>59</v>
-      </c>
-      <c r="M64" t="s">
-        <v>60</v>
-      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
       <c r="N64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -4292,19 +4163,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
@@ -4329,7 +4200,7 @@
         <v>51</v>
       </c>
       <c r="N65" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O65" t="s">
         <v>28</v>
@@ -4337,19 +4208,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -4374,7 +4245,7 @@
         <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" t="s">
         <v>28</v>
@@ -4382,19 +4253,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -4419,7 +4290,7 @@
         <v>51</v>
       </c>
       <c r="N67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -4427,25 +4298,25 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
@@ -4461,10 +4332,10 @@
         <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N68" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -4472,7 +4343,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -4481,10 +4352,10 @@
         <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
@@ -4502,14 +4373,10 @@
       <c r="K69" t="s">
         <v>58</v>
       </c>
-      <c r="L69" t="s">
-        <v>59</v>
-      </c>
-      <c r="M69" t="s">
-        <v>60</v>
-      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
       <c r="N69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -4517,19 +4384,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
@@ -4554,7 +4421,7 @@
         <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" t="s">
         <v>28</v>
@@ -4562,25 +4429,25 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" t="s">
@@ -4596,10 +4463,10 @@
         <v>25</v>
       </c>
       <c r="M71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N71" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O71" t="s">
         <v>28</v>
@@ -4607,25 +4474,25 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" t="s">
@@ -4641,10 +4508,10 @@
         <v>25</v>
       </c>
       <c r="M72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -4652,25 +4519,25 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" t="s">
@@ -4686,10 +4553,10 @@
         <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -4697,19 +4564,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
@@ -4734,7 +4601,7 @@
         <v>51</v>
       </c>
       <c r="N74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -4742,25 +4609,25 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
@@ -4776,10 +4643,10 @@
         <v>25</v>
       </c>
       <c r="M75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O75" t="s">
         <v>28</v>
@@ -4787,7 +4654,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -4796,10 +4663,10 @@
         <v>56</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
@@ -4817,14 +4684,10 @@
       <c r="K76" t="s">
         <v>58</v>
       </c>
-      <c r="L76" t="s">
-        <v>59</v>
-      </c>
-      <c r="M76" t="s">
-        <v>60</v>
-      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
       <c r="N76" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O76" t="s">
         <v>28</v>
@@ -4832,7 +4695,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -4841,10 +4704,10 @@
         <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
@@ -4862,14 +4725,10 @@
       <c r="K77" t="s">
         <v>58</v>
       </c>
-      <c r="L77" t="s">
-        <v>59</v>
-      </c>
-      <c r="M77" t="s">
-        <v>60</v>
-      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
       <c r="N77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O77" t="s">
         <v>28</v>
@@ -4877,25 +4736,25 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
@@ -4911,10 +4770,10 @@
         <v>25</v>
       </c>
       <c r="M78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N78" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O78" t="s">
         <v>28</v>
@@ -4922,25 +4781,25 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
@@ -4956,10 +4815,10 @@
         <v>25</v>
       </c>
       <c r="M79" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N79" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O79" t="s">
         <v>28</v>
@@ -4967,19 +4826,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
@@ -5004,7 +4863,7 @@
         <v>34</v>
       </c>
       <c r="N80" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O80" t="s">
         <v>28</v>
@@ -5012,25 +4871,25 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" t="s">
@@ -5046,10 +4905,10 @@
         <v>25</v>
       </c>
       <c r="M81" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N81" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -5057,25 +4916,25 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
@@ -5087,14 +4946,10 @@
       <c r="K82" t="s">
         <v>58</v>
       </c>
-      <c r="L82" t="s">
-        <v>59</v>
-      </c>
-      <c r="M82" t="s">
-        <v>65</v>
-      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
       <c r="N82" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -5102,25 +4957,25 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
@@ -5136,10 +4991,10 @@
         <v>25</v>
       </c>
       <c r="M83" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N83" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -5147,25 +5002,25 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
@@ -5181,10 +5036,10 @@
         <v>25</v>
       </c>
       <c r="M84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N84" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -5192,25 +5047,25 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
@@ -5226,10 +5081,10 @@
         <v>25</v>
       </c>
       <c r="M85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N85" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O85" t="s">
         <v>28</v>
@@ -5237,19 +5092,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
@@ -5267,14 +5122,10 @@
       <c r="K86" t="s">
         <v>58</v>
       </c>
-      <c r="L86" t="s">
-        <v>59</v>
-      </c>
-      <c r="M86" t="s">
-        <v>60</v>
-      </c>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
       <c r="N86" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O86" t="s">
         <v>28</v>
@@ -5282,19 +5133,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" t="s">
         <v>80</v>
-      </c>
-      <c r="E87" t="s">
-        <v>83</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
@@ -5312,14 +5163,10 @@
       <c r="K87" t="s">
         <v>58</v>
       </c>
-      <c r="L87" t="s">
-        <v>59</v>
-      </c>
-      <c r="M87" t="s">
-        <v>60</v>
-      </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
       <c r="N87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O87" t="s">
         <v>28</v>
@@ -5327,25 +5174,25 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
@@ -5361,10 +5208,10 @@
         <v>25</v>
       </c>
       <c r="M88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N88" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O88" t="s">
         <v>28</v>
@@ -5372,19 +5219,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -5409,7 +5256,7 @@
         <v>34</v>
       </c>
       <c r="N89" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O89" t="s">
         <v>28</v>
@@ -5417,25 +5264,25 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
@@ -5451,10 +5298,10 @@
         <v>25</v>
       </c>
       <c r="M90" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N90" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O90" t="s">
         <v>28</v>
@@ -5462,19 +5309,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -5499,7 +5346,7 @@
         <v>34</v>
       </c>
       <c r="N91" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O91" t="s">
         <v>28</v>
@@ -5507,25 +5354,25 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
@@ -5541,10 +5388,10 @@
         <v>25</v>
       </c>
       <c r="M92" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N92" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O92" t="s">
         <v>28</v>
@@ -5552,7 +5399,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -5561,10 +5408,10 @@
         <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E93" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -5582,14 +5429,10 @@
       <c r="K93" t="s">
         <v>58</v>
       </c>
-      <c r="L93" t="s">
-        <v>59</v>
-      </c>
-      <c r="M93" t="s">
-        <v>60</v>
-      </c>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
       <c r="N93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O93" t="s">
         <v>28</v>
@@ -5597,19 +5440,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -5634,7 +5477,7 @@
         <v>51</v>
       </c>
       <c r="N94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O94" t="s">
         <v>28</v>
@@ -5642,19 +5485,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -5679,7 +5522,7 @@
         <v>51</v>
       </c>
       <c r="N95" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O95" t="s">
         <v>28</v>
@@ -5687,19 +5530,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D96" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E96" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -5724,7 +5567,7 @@
         <v>51</v>
       </c>
       <c r="N96" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O96" t="s">
         <v>28</v>
@@ -5732,25 +5575,25 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" t="s">
@@ -5766,10 +5609,10 @@
         <v>25</v>
       </c>
       <c r="M97" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O97" t="s">
         <v>28</v>
@@ -5777,25 +5620,25 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D98" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" t="s">
@@ -5807,14 +5650,10 @@
       <c r="K98" t="s">
         <v>58</v>
       </c>
-      <c r="L98" t="s">
-        <v>59</v>
-      </c>
-      <c r="M98" t="s">
-        <v>65</v>
-      </c>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
       <c r="N98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O98" t="s">
         <v>28</v>
@@ -5822,19 +5661,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D99" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -5852,14 +5691,10 @@
       <c r="K99" t="s">
         <v>58</v>
       </c>
-      <c r="L99" t="s">
-        <v>59</v>
-      </c>
-      <c r="M99" t="s">
-        <v>60</v>
-      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
       <c r="N99" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O99" t="s">
         <v>28</v>
@@ -5867,19 +5702,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E100" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
@@ -5904,7 +5739,7 @@
         <v>34</v>
       </c>
       <c r="N100" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O100" t="s">
         <v>28</v>
@@ -5912,25 +5747,25 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E101" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" t="s">
@@ -5946,10 +5781,10 @@
         <v>25</v>
       </c>
       <c r="M101" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N101" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O101" t="s">
         <v>28</v>
@@ -5957,25 +5792,25 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" t="s">
@@ -5991,10 +5826,10 @@
         <v>25</v>
       </c>
       <c r="M102" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O102" t="s">
         <v>28</v>
@@ -6002,19 +5837,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D103" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E103" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -6032,14 +5867,10 @@
       <c r="K103" t="s">
         <v>58</v>
       </c>
-      <c r="L103" t="s">
-        <v>59</v>
-      </c>
-      <c r="M103" t="s">
-        <v>60</v>
-      </c>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
       <c r="N103" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O103" t="s">
         <v>28</v>
@@ -6047,25 +5878,25 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D104" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" t="s">
@@ -6077,14 +5908,10 @@
       <c r="K104" t="s">
         <v>58</v>
       </c>
-      <c r="L104" t="s">
-        <v>59</v>
-      </c>
-      <c r="M104" t="s">
-        <v>65</v>
-      </c>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
       <c r="N104" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O104" t="s">
         <v>28</v>
@@ -6092,25 +5919,25 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E105" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" t="s">
@@ -6122,14 +5949,10 @@
       <c r="K105" t="s">
         <v>58</v>
       </c>
-      <c r="L105" t="s">
-        <v>59</v>
-      </c>
-      <c r="M105" t="s">
-        <v>65</v>
-      </c>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
       <c r="N105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O105" t="s">
         <v>28</v>
@@ -6137,7 +5960,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -6146,10 +5969,10 @@
         <v>56</v>
       </c>
       <c r="D106" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E106" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -6167,14 +5990,10 @@
       <c r="K106" t="s">
         <v>58</v>
       </c>
-      <c r="L106" t="s">
-        <v>59</v>
-      </c>
-      <c r="M106" t="s">
-        <v>60</v>
-      </c>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
       <c r="N106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O106" t="s">
         <v>28</v>
@@ -6182,25 +6001,25 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E107" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" t="s">
@@ -6216,10 +6035,10 @@
         <v>25</v>
       </c>
       <c r="M107" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N107" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O107" t="s">
         <v>28</v>
@@ -6227,19 +6046,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D108" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
@@ -6264,7 +6083,7 @@
         <v>51</v>
       </c>
       <c r="N108" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O108" t="s">
         <v>28</v>
@@ -6272,25 +6091,25 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E109" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" t="s">
@@ -6306,10 +6125,10 @@
         <v>25</v>
       </c>
       <c r="M109" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N109" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O109" t="s">
         <v>28</v>
@@ -6317,25 +6136,25 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" t="s">
@@ -6351,10 +6170,10 @@
         <v>25</v>
       </c>
       <c r="M110" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N110" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O110" t="s">
         <v>28</v>
@@ -6362,25 +6181,25 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D111" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E111" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" t="s">
@@ -6392,14 +6211,10 @@
       <c r="K111" t="s">
         <v>58</v>
       </c>
-      <c r="L111" t="s">
-        <v>59</v>
-      </c>
-      <c r="M111" t="s">
-        <v>65</v>
-      </c>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
       <c r="N111" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O111" t="s">
         <v>28</v>
@@ -6407,25 +6222,25 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D112" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E112" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" t="s">
@@ -6437,14 +6252,10 @@
       <c r="K112" t="s">
         <v>58</v>
       </c>
-      <c r="L112" t="s">
-        <v>59</v>
-      </c>
-      <c r="M112" t="s">
-        <v>65</v>
-      </c>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
       <c r="N112" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O112" t="s">
         <v>28</v>
@@ -6452,19 +6263,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D113" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -6489,7 +6300,7 @@
         <v>51</v>
       </c>
       <c r="N113" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O113" t="s">
         <v>28</v>
@@ -6497,13 +6308,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D114" t="s">
         <v>30</v>
@@ -6515,7 +6326,7 @@
         <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" t="s">
@@ -6527,14 +6338,10 @@
       <c r="K114" t="s">
         <v>58</v>
       </c>
-      <c r="L114" t="s">
-        <v>59</v>
-      </c>
-      <c r="M114" t="s">
-        <v>65</v>
-      </c>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
       <c r="N114" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O114" t="s">
         <v>28</v>
@@ -6542,7 +6349,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -6579,7 +6386,7 @@
         <v>34</v>
       </c>
       <c r="N115" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O115" t="s">
         <v>28</v>
@@ -6587,13 +6394,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D116" t="s">
         <v>30</v>
@@ -6624,7 +6431,7 @@
         <v>51</v>
       </c>
       <c r="N116" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O116" t="s">
         <v>28</v>
@@ -6632,7 +6439,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -6669,7 +6476,7 @@
         <v>34</v>
       </c>
       <c r="N117" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O117" t="s">
         <v>28</v>
@@ -6677,13 +6484,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D118" t="s">
         <v>30</v>
@@ -6714,7 +6521,7 @@
         <v>51</v>
       </c>
       <c r="N118" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O118" t="s">
         <v>28</v>
@@ -6722,7 +6529,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
@@ -6759,7 +6566,7 @@
         <v>51</v>
       </c>
       <c r="N119" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O119" t="s">
         <v>28</v>
@@ -6767,16 +6574,16 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D120" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -6804,7 +6611,7 @@
         <v>51</v>
       </c>
       <c r="N120" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O120" t="s">
         <v>28</v>
@@ -6812,7 +6619,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -6849,7 +6656,7 @@
         <v>34</v>
       </c>
       <c r="N121" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O121" t="s">
         <v>28</v>
@@ -6857,7 +6664,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -6866,7 +6673,7 @@
         <v>47</v>
       </c>
       <c r="D122" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
@@ -6894,7 +6701,7 @@
         <v>51</v>
       </c>
       <c r="N122" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O122" t="s">
         <v>28</v>
@@ -6902,7 +6709,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -6939,7 +6746,7 @@
         <v>51</v>
       </c>
       <c r="N123" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O123" t="s">
         <v>28</v>
@@ -6947,7 +6754,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -6984,7 +6791,7 @@
         <v>34</v>
       </c>
       <c r="N124" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O124" t="s">
         <v>28</v>
@@ -6992,7 +6799,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -7029,7 +6836,7 @@
         <v>26</v>
       </c>
       <c r="N125" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O125" t="s">
         <v>28</v>
@@ -7037,13 +6844,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D126" t="s">
         <v>44</v>
@@ -7074,7 +6881,7 @@
         <v>51</v>
       </c>
       <c r="N126" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O126" t="s">
         <v>28</v>
@@ -7082,13 +6889,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D127" t="s">
         <v>30</v>
@@ -7100,7 +6907,7 @@
         <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" t="s">
@@ -7112,14 +6919,10 @@
       <c r="K127" t="s">
         <v>58</v>
       </c>
-      <c r="L127" t="s">
-        <v>59</v>
-      </c>
-      <c r="M127" t="s">
-        <v>65</v>
-      </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
       <c r="N127" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O127" t="s">
         <v>28</v>
@@ -7127,7 +6930,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -7164,7 +6967,7 @@
         <v>51</v>
       </c>
       <c r="N128" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O128" t="s">
         <v>28</v>
@@ -7172,7 +6975,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -7209,7 +7012,7 @@
         <v>34</v>
       </c>
       <c r="N129" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O129" t="s">
         <v>28</v>
@@ -7217,7 +7020,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -7254,7 +7057,7 @@
         <v>34</v>
       </c>
       <c r="N130" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O130" t="s">
         <v>28</v>
@@ -7262,16 +7065,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D131" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
@@ -7280,7 +7083,7 @@
         <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" t="s">
@@ -7292,14 +7095,10 @@
       <c r="K131" t="s">
         <v>58</v>
       </c>
-      <c r="L131" t="s">
-        <v>59</v>
-      </c>
-      <c r="M131" t="s">
-        <v>65</v>
-      </c>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
       <c r="N131" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O131" t="s">
         <v>28</v>
@@ -7307,7 +7106,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
@@ -7344,7 +7143,7 @@
         <v>26</v>
       </c>
       <c r="N132" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O132" t="s">
         <v>28</v>
@@ -7352,7 +7151,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -7389,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="N133" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O133" t="s">
         <v>28</v>
@@ -7411,10 +7210,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
@@ -7422,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3">
@@ -7430,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7237,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
@@ -7446,7 +7245,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
@@ -7454,7 +7253,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
@@ -7462,7 +7261,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8">
@@ -7470,7 +7269,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9">
@@ -7478,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
@@ -7486,7 +7285,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11">
@@ -7494,7 +7293,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12">
@@ -7502,7 +7301,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13">
@@ -7510,7 +7309,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14">
@@ -7518,7 +7317,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15">
@@ -7526,7 +7325,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_7/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_7/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -186,12 +186,18 @@
     <t xml:space="preserve">2020-08-27</t>
   </si>
   <si>
-    <t xml:space="preserve">4010</t>
+    <t xml:space="preserve">4110</t>
   </si>
   <si>
     <t xml:space="preserve">Temperate heath and scrub</t>
   </si>
   <si>
+    <t xml:space="preserve">Temperate heath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wet heath</t>
+  </si>
+  <si>
     <t xml:space="preserve">E46</t>
   </si>
   <si>
@@ -201,7 +207,10 @@
     <t xml:space="preserve">2020-08-11</t>
   </si>
   <si>
-    <t xml:space="preserve">4030</t>
+    <t xml:space="preserve">4130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry heath</t>
   </si>
   <si>
     <t xml:space="preserve">D33</t>
@@ -1848,10 +1857,14 @@
       <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
@@ -1859,13 +1872,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1877,7 +1890,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
@@ -1889,10 +1902,14 @@
       <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
       <c r="N11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O11" t="s">
         <v>28</v>
@@ -1900,7 +1917,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1937,7 +1954,7 @@
         <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
         <v>28</v>
@@ -1945,25 +1962,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
@@ -1975,10 +1992,14 @@
       <c r="K13" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
         <v>28</v>
@@ -1986,25 +2007,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
@@ -2016,10 +2037,14 @@
       <c r="K14" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" t="s">
+        <v>65</v>
+      </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
         <v>28</v>
@@ -2027,19 +2052,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
         <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -2057,10 +2082,14 @@
       <c r="K15" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
@@ -2068,19 +2097,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -2098,10 +2127,14 @@
       <c r="K16" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O16" t="s">
         <v>28</v>
@@ -2109,19 +2142,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
@@ -2146,7 +2179,7 @@
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
         <v>28</v>
@@ -2154,19 +2187,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2184,10 +2217,14 @@
       <c r="K18" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
       <c r="N18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O18" t="s">
         <v>28</v>
@@ -2195,7 +2232,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -2204,10 +2241,10 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2232,7 +2269,7 @@
         <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O19" t="s">
         <v>28</v>
@@ -2240,19 +2277,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2277,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O20" t="s">
         <v>28</v>
@@ -2285,25 +2322,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
@@ -2315,10 +2352,14 @@
       <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" t="s">
+        <v>65</v>
+      </c>
       <c r="N21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O21" t="s">
         <v>28</v>
@@ -2326,25 +2367,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
@@ -2356,10 +2397,14 @@
       <c r="K22" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" t="s">
+        <v>65</v>
+      </c>
       <c r="N22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O22" t="s">
         <v>28</v>
@@ -2367,25 +2412,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
@@ -2397,10 +2442,14 @@
       <c r="K23" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" t="s">
+        <v>65</v>
+      </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O23" t="s">
         <v>28</v>
@@ -2408,25 +2457,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
@@ -2438,10 +2487,14 @@
       <c r="K24" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" t="s">
+        <v>65</v>
+      </c>
       <c r="N24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O24" t="s">
         <v>28</v>
@@ -2449,19 +2502,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -2486,7 +2539,7 @@
         <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O25" t="s">
         <v>28</v>
@@ -2494,25 +2547,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
@@ -2524,10 +2577,14 @@
       <c r="K26" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" t="s">
+        <v>65</v>
+      </c>
       <c r="N26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O26" t="s">
         <v>28</v>
@@ -2535,25 +2592,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
-      </c>
       <c r="F27" t="s">
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
@@ -2565,10 +2622,14 @@
       <c r="K27" t="s">
         <v>58</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="L27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" t="s">
+        <v>65</v>
+      </c>
       <c r="N27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O27" t="s">
         <v>28</v>
@@ -2576,19 +2637,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
@@ -2613,7 +2674,7 @@
         <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O28" t="s">
         <v>28</v>
@@ -2621,19 +2682,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
@@ -2658,7 +2719,7 @@
         <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O29" t="s">
         <v>28</v>
@@ -2666,25 +2727,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
@@ -2696,10 +2757,14 @@
       <c r="K30" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="L30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" t="s">
+        <v>65</v>
+      </c>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O30" t="s">
         <v>28</v>
@@ -2707,19 +2772,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
@@ -2737,10 +2802,14 @@
       <c r="K31" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="L31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" t="s">
+        <v>60</v>
+      </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O31" t="s">
         <v>28</v>
@@ -2748,25 +2817,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
@@ -2778,10 +2847,14 @@
       <c r="K32" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="L32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" t="s">
+        <v>65</v>
+      </c>
       <c r="N32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O32" t="s">
         <v>28</v>
@@ -2789,25 +2862,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" t="s">
@@ -2819,10 +2892,14 @@
       <c r="K33" t="s">
         <v>58</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="L33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" t="s">
+        <v>65</v>
+      </c>
       <c r="N33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O33" t="s">
         <v>28</v>
@@ -2830,19 +2907,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -2867,7 +2944,7 @@
         <v>34</v>
       </c>
       <c r="N34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O34" t="s">
         <v>28</v>
@@ -2875,19 +2952,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -2905,10 +2982,14 @@
       <c r="K35" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="L35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" t="s">
+        <v>60</v>
+      </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
         <v>28</v>
@@ -2916,25 +2997,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" t="s">
@@ -2946,10 +3027,14 @@
       <c r="K36" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="L36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" t="s">
+        <v>65</v>
+      </c>
       <c r="N36" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s">
         <v>28</v>
@@ -2957,7 +3042,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2966,10 +3051,10 @@
         <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -2994,7 +3079,7 @@
         <v>51</v>
       </c>
       <c r="N37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O37" t="s">
         <v>28</v>
@@ -3002,19 +3087,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -3039,7 +3124,7 @@
         <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O38" t="s">
         <v>28</v>
@@ -3047,25 +3132,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" t="s">
@@ -3081,10 +3166,10 @@
         <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O39" t="s">
         <v>28</v>
@@ -3092,19 +3177,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
@@ -3122,10 +3207,14 @@
       <c r="K40" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="L40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" t="s">
+        <v>60</v>
+      </c>
       <c r="N40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O40" t="s">
         <v>28</v>
@@ -3133,19 +3222,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -3163,10 +3252,14 @@
       <c r="K41" t="s">
         <v>58</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="L41" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" t="s">
+        <v>60</v>
+      </c>
       <c r="N41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O41" t="s">
         <v>28</v>
@@ -3174,19 +3267,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
@@ -3204,10 +3297,14 @@
       <c r="K42" t="s">
         <v>58</v>
       </c>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="L42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" t="s">
+        <v>60</v>
+      </c>
       <c r="N42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O42" t="s">
         <v>28</v>
@@ -3215,19 +3312,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
         <v>20</v>
@@ -3245,10 +3342,14 @@
       <c r="K43" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="L43" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" t="s">
+        <v>60</v>
+      </c>
       <c r="N43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O43" t="s">
         <v>28</v>
@@ -3256,19 +3357,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
@@ -3286,10 +3387,14 @@
       <c r="K44" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="L44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" t="s">
+        <v>60</v>
+      </c>
       <c r="N44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O44" t="s">
         <v>28</v>
@@ -3297,7 +3402,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -3306,10 +3411,10 @@
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
@@ -3327,10 +3432,14 @@
       <c r="K45" t="s">
         <v>58</v>
       </c>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="L45" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" t="s">
+        <v>60</v>
+      </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O45" t="s">
         <v>28</v>
@@ -3338,25 +3447,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
@@ -3372,10 +3481,10 @@
         <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O46" t="s">
         <v>28</v>
@@ -3383,19 +3492,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
         <v>76</v>
-      </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" t="s">
-        <v>73</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
@@ -3413,10 +3522,14 @@
       <c r="K47" t="s">
         <v>58</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="L47" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" t="s">
+        <v>60</v>
+      </c>
       <c r="N47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -3424,25 +3537,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" t="s">
@@ -3454,10 +3567,14 @@
       <c r="K48" t="s">
         <v>58</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="L48" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" t="s">
+        <v>65</v>
+      </c>
       <c r="N48" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -3465,17 +3582,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
@@ -3492,7 +3609,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -3500,19 +3617,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
@@ -3537,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="N50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O50" t="s">
         <v>28</v>
@@ -3545,19 +3662,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -3582,7 +3699,7 @@
         <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O51" t="s">
         <v>28</v>
@@ -3590,16 +3707,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
         <v>31</v>
@@ -3608,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" t="s">
@@ -3624,10 +3741,10 @@
         <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -3635,19 +3752,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
@@ -3672,7 +3789,7 @@
         <v>51</v>
       </c>
       <c r="N53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -3680,16 +3797,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
         <v>31</v>
@@ -3698,7 +3815,7 @@
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" t="s">
@@ -3714,10 +3831,10 @@
         <v>25</v>
       </c>
       <c r="M54" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -3725,19 +3842,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
@@ -3762,7 +3879,7 @@
         <v>51</v>
       </c>
       <c r="N55" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O55" t="s">
         <v>28</v>
@@ -3770,25 +3887,25 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" t="s">
@@ -3804,10 +3921,10 @@
         <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O56" t="s">
         <v>28</v>
@@ -3815,19 +3932,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
         <v>166</v>
       </c>
-      <c r="D57" t="s">
-        <v>163</v>
-      </c>
       <c r="E57" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -3852,7 +3969,7 @@
         <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -3860,25 +3977,25 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" t="s">
@@ -3894,10 +4011,10 @@
         <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N58" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -3905,7 +4022,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -3917,7 +4034,7 @@
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
@@ -3935,10 +4052,14 @@
       <c r="K59" t="s">
         <v>58</v>
       </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="L59" t="s">
+        <v>59</v>
+      </c>
+      <c r="M59" t="s">
+        <v>60</v>
+      </c>
       <c r="N59" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -3946,19 +4067,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
@@ -3983,7 +4104,7 @@
         <v>51</v>
       </c>
       <c r="N60" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O60" t="s">
         <v>28</v>
@@ -3991,19 +4112,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
@@ -4028,7 +4149,7 @@
         <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O61" t="s">
         <v>28</v>
@@ -4036,25 +4157,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" t="s">
@@ -4066,10 +4187,14 @@
       <c r="K62" t="s">
         <v>58</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="L62" t="s">
+        <v>59</v>
+      </c>
+      <c r="M62" t="s">
+        <v>65</v>
+      </c>
       <c r="N62" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -4077,19 +4202,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
@@ -4114,7 +4239,7 @@
         <v>51</v>
       </c>
       <c r="N63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -4122,7 +4247,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
@@ -4131,10 +4256,10 @@
         <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
@@ -4152,10 +4277,14 @@
       <c r="K64" t="s">
         <v>58</v>
       </c>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="L64" t="s">
+        <v>59</v>
+      </c>
+      <c r="M64" t="s">
+        <v>60</v>
+      </c>
       <c r="N64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -4163,19 +4292,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
@@ -4200,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="N65" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O65" t="s">
         <v>28</v>
@@ -4208,19 +4337,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -4245,7 +4374,7 @@
         <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" t="s">
         <v>28</v>
@@ -4253,19 +4382,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -4290,7 +4419,7 @@
         <v>51</v>
       </c>
       <c r="N67" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -4298,25 +4427,25 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" t="s">
@@ -4332,10 +4461,10 @@
         <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N68" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -4343,7 +4472,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
@@ -4352,10 +4481,10 @@
         <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
@@ -4373,10 +4502,14 @@
       <c r="K69" t="s">
         <v>58</v>
       </c>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+      <c r="L69" t="s">
+        <v>59</v>
+      </c>
+      <c r="M69" t="s">
+        <v>60</v>
+      </c>
       <c r="N69" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -4384,19 +4517,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
@@ -4421,7 +4554,7 @@
         <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O70" t="s">
         <v>28</v>
@@ -4429,25 +4562,25 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" t="s">
@@ -4463,10 +4596,10 @@
         <v>25</v>
       </c>
       <c r="M71" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N71" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O71" t="s">
         <v>28</v>
@@ -4474,25 +4607,25 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" t="s">
@@ -4508,10 +4641,10 @@
         <v>25</v>
       </c>
       <c r="M72" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N72" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O72" t="s">
         <v>28</v>
@@ -4519,25 +4652,25 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" t="s">
@@ -4553,10 +4686,10 @@
         <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N73" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O73" t="s">
         <v>28</v>
@@ -4564,19 +4697,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
@@ -4601,7 +4734,7 @@
         <v>51</v>
       </c>
       <c r="N74" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O74" t="s">
         <v>28</v>
@@ -4609,25 +4742,25 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
@@ -4643,10 +4776,10 @@
         <v>25</v>
       </c>
       <c r="M75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N75" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O75" t="s">
         <v>28</v>
@@ -4654,7 +4787,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -4663,10 +4796,10 @@
         <v>56</v>
       </c>
       <c r="D76" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
@@ -4684,10 +4817,14 @@
       <c r="K76" t="s">
         <v>58</v>
       </c>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="L76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M76" t="s">
+        <v>60</v>
+      </c>
       <c r="N76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O76" t="s">
         <v>28</v>
@@ -4695,7 +4832,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -4704,10 +4841,10 @@
         <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
         <v>20</v>
@@ -4725,10 +4862,14 @@
       <c r="K77" t="s">
         <v>58</v>
       </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="L77" t="s">
+        <v>59</v>
+      </c>
+      <c r="M77" t="s">
+        <v>60</v>
+      </c>
       <c r="N77" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O77" t="s">
         <v>28</v>
@@ -4736,25 +4877,25 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
@@ -4770,10 +4911,10 @@
         <v>25</v>
       </c>
       <c r="M78" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N78" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O78" t="s">
         <v>28</v>
@@ -4781,25 +4922,25 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
@@ -4815,10 +4956,10 @@
         <v>25</v>
       </c>
       <c r="M79" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N79" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O79" t="s">
         <v>28</v>
@@ -4826,19 +4967,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" t="s">
         <v>131</v>
       </c>
-      <c r="D80" t="s">
-        <v>128</v>
-      </c>
       <c r="E80" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
@@ -4863,7 +5004,7 @@
         <v>34</v>
       </c>
       <c r="N80" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O80" t="s">
         <v>28</v>
@@ -4871,25 +5012,25 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F81" t="s">
         <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" t="s">
@@ -4905,10 +5046,10 @@
         <v>25</v>
       </c>
       <c r="M81" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N81" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O81" t="s">
         <v>28</v>
@@ -4916,25 +5057,25 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
@@ -4946,10 +5087,14 @@
       <c r="K82" t="s">
         <v>58</v>
       </c>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
+      <c r="L82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M82" t="s">
+        <v>65</v>
+      </c>
       <c r="N82" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O82" t="s">
         <v>28</v>
@@ -4957,25 +5102,25 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
@@ -4991,10 +5136,10 @@
         <v>25</v>
       </c>
       <c r="M83" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N83" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O83" t="s">
         <v>28</v>
@@ -5002,25 +5147,25 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D84" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
@@ -5036,10 +5181,10 @@
         <v>25</v>
       </c>
       <c r="M84" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N84" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O84" t="s">
         <v>28</v>
@@ -5047,25 +5192,25 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
@@ -5081,10 +5226,10 @@
         <v>25</v>
       </c>
       <c r="M85" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N85" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O85" t="s">
         <v>28</v>
@@ -5092,19 +5237,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
@@ -5122,10 +5267,14 @@
       <c r="K86" t="s">
         <v>58</v>
       </c>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
+      <c r="L86" t="s">
+        <v>59</v>
+      </c>
+      <c r="M86" t="s">
+        <v>60</v>
+      </c>
       <c r="N86" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O86" t="s">
         <v>28</v>
@@ -5133,19 +5282,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D87" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F87" t="s">
         <v>20</v>
@@ -5163,10 +5312,14 @@
       <c r="K87" t="s">
         <v>58</v>
       </c>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
+      <c r="L87" t="s">
+        <v>59</v>
+      </c>
+      <c r="M87" t="s">
+        <v>60</v>
+      </c>
       <c r="N87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O87" t="s">
         <v>28</v>
@@ -5174,25 +5327,25 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
@@ -5208,10 +5361,10 @@
         <v>25</v>
       </c>
       <c r="M88" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N88" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O88" t="s">
         <v>28</v>
@@ -5219,19 +5372,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D89" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E89" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -5256,7 +5409,7 @@
         <v>34</v>
       </c>
       <c r="N89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O89" t="s">
         <v>28</v>
@@ -5264,25 +5417,25 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
@@ -5298,10 +5451,10 @@
         <v>25</v>
       </c>
       <c r="M90" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N90" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O90" t="s">
         <v>28</v>
@@ -5309,19 +5462,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F91" t="s">
         <v>20</v>
@@ -5346,7 +5499,7 @@
         <v>34</v>
       </c>
       <c r="N91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O91" t="s">
         <v>28</v>
@@ -5354,25 +5507,25 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
       </c>
       <c r="E92" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F92" t="s">
         <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
@@ -5388,10 +5541,10 @@
         <v>25</v>
       </c>
       <c r="M92" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N92" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O92" t="s">
         <v>28</v>
@@ -5399,7 +5552,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -5408,10 +5561,10 @@
         <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E93" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F93" t="s">
         <v>20</v>
@@ -5429,10 +5582,14 @@
       <c r="K93" t="s">
         <v>58</v>
       </c>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
+      <c r="L93" t="s">
+        <v>59</v>
+      </c>
+      <c r="M93" t="s">
+        <v>60</v>
+      </c>
       <c r="N93" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O93" t="s">
         <v>28</v>
@@ -5440,19 +5597,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F94" t="s">
         <v>20</v>
@@ -5477,7 +5634,7 @@
         <v>51</v>
       </c>
       <c r="N94" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O94" t="s">
         <v>28</v>
@@ -5485,19 +5642,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F95" t="s">
         <v>20</v>
@@ -5522,7 +5679,7 @@
         <v>51</v>
       </c>
       <c r="N95" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O95" t="s">
         <v>28</v>
@@ -5530,19 +5687,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F96" t="s">
         <v>20</v>
@@ -5567,7 +5724,7 @@
         <v>51</v>
       </c>
       <c r="N96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O96" t="s">
         <v>28</v>
@@ -5575,25 +5732,25 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
       </c>
       <c r="E97" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" t="s">
@@ -5609,10 +5766,10 @@
         <v>25</v>
       </c>
       <c r="M97" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N97" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O97" t="s">
         <v>28</v>
@@ -5620,25 +5777,25 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
       </c>
       <c r="G98" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" t="s">
@@ -5650,10 +5807,14 @@
       <c r="K98" t="s">
         <v>58</v>
       </c>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
+      <c r="L98" t="s">
+        <v>59</v>
+      </c>
+      <c r="M98" t="s">
+        <v>65</v>
+      </c>
       <c r="N98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O98" t="s">
         <v>28</v>
@@ -5661,19 +5822,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -5691,10 +5852,14 @@
       <c r="K99" t="s">
         <v>58</v>
       </c>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
+      <c r="L99" t="s">
+        <v>59</v>
+      </c>
+      <c r="M99" t="s">
+        <v>60</v>
+      </c>
       <c r="N99" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O99" t="s">
         <v>28</v>
@@ -5702,19 +5867,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D100" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E100" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
@@ -5739,7 +5904,7 @@
         <v>34</v>
       </c>
       <c r="N100" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O100" t="s">
         <v>28</v>
@@ -5747,25 +5912,25 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E101" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
       </c>
       <c r="G101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H101" s="2"/>
       <c r="I101" t="s">
@@ -5781,10 +5946,10 @@
         <v>25</v>
       </c>
       <c r="M101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N101" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O101" t="s">
         <v>28</v>
@@ -5792,25 +5957,25 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D102" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E102" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" t="s">
@@ -5826,10 +5991,10 @@
         <v>25</v>
       </c>
       <c r="M102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N102" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O102" t="s">
         <v>28</v>
@@ -5837,19 +6002,19 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -5867,10 +6032,14 @@
       <c r="K103" t="s">
         <v>58</v>
       </c>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
+      <c r="L103" t="s">
+        <v>59</v>
+      </c>
+      <c r="M103" t="s">
+        <v>60</v>
+      </c>
       <c r="N103" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O103" t="s">
         <v>28</v>
@@ -5878,25 +6047,25 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E104" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" t="s">
@@ -5908,10 +6077,14 @@
       <c r="K104" t="s">
         <v>58</v>
       </c>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
+      <c r="L104" t="s">
+        <v>59</v>
+      </c>
+      <c r="M104" t="s">
+        <v>65</v>
+      </c>
       <c r="N104" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O104" t="s">
         <v>28</v>
@@ -5919,25 +6092,25 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D105" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" t="s">
@@ -5949,10 +6122,14 @@
       <c r="K105" t="s">
         <v>58</v>
       </c>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
+      <c r="L105" t="s">
+        <v>59</v>
+      </c>
+      <c r="M105" t="s">
+        <v>65</v>
+      </c>
       <c r="N105" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s">
         <v>28</v>
@@ -5960,7 +6137,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
@@ -5969,10 +6146,10 @@
         <v>56</v>
       </c>
       <c r="D106" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -5990,10 +6167,14 @@
       <c r="K106" t="s">
         <v>58</v>
       </c>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
+      <c r="L106" t="s">
+        <v>59</v>
+      </c>
+      <c r="M106" t="s">
+        <v>60</v>
+      </c>
       <c r="N106" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O106" t="s">
         <v>28</v>
@@ -6001,25 +6182,25 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" t="s">
@@ -6035,10 +6216,10 @@
         <v>25</v>
       </c>
       <c r="M107" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O107" t="s">
         <v>28</v>
@@ -6046,19 +6227,19 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
@@ -6083,7 +6264,7 @@
         <v>51</v>
       </c>
       <c r="N108" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O108" t="s">
         <v>28</v>
@@ -6091,25 +6272,25 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D109" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E109" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" t="s">
@@ -6125,10 +6306,10 @@
         <v>25</v>
       </c>
       <c r="M109" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N109" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O109" t="s">
         <v>28</v>
@@ -6136,25 +6317,25 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D110" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" t="s">
@@ -6170,10 +6351,10 @@
         <v>25</v>
       </c>
       <c r="M110" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N110" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O110" t="s">
         <v>28</v>
@@ -6181,25 +6362,25 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E111" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" t="s">
@@ -6211,10 +6392,14 @@
       <c r="K111" t="s">
         <v>58</v>
       </c>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
+      <c r="L111" t="s">
+        <v>59</v>
+      </c>
+      <c r="M111" t="s">
+        <v>65</v>
+      </c>
       <c r="N111" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O111" t="s">
         <v>28</v>
@@ -6222,25 +6407,25 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D112" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" t="s">
@@ -6252,10 +6437,14 @@
       <c r="K112" t="s">
         <v>58</v>
       </c>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
+      <c r="L112" t="s">
+        <v>59</v>
+      </c>
+      <c r="M112" t="s">
+        <v>65</v>
+      </c>
       <c r="N112" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O112" t="s">
         <v>28</v>
@@ -6263,19 +6452,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D113" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -6300,7 +6489,7 @@
         <v>51</v>
       </c>
       <c r="N113" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O113" t="s">
         <v>28</v>
@@ -6308,13 +6497,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D114" t="s">
         <v>30</v>
@@ -6326,7 +6515,7 @@
         <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" t="s">
@@ -6338,10 +6527,14 @@
       <c r="K114" t="s">
         <v>58</v>
       </c>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
+      <c r="L114" t="s">
+        <v>59</v>
+      </c>
+      <c r="M114" t="s">
+        <v>65</v>
+      </c>
       <c r="N114" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O114" t="s">
         <v>28</v>
@@ -6349,7 +6542,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -6386,7 +6579,7 @@
         <v>34</v>
       </c>
       <c r="N115" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O115" t="s">
         <v>28</v>
@@ -6394,13 +6587,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s">
         <v>30</v>
@@ -6431,7 +6624,7 @@
         <v>51</v>
       </c>
       <c r="N116" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O116" t="s">
         <v>28</v>
@@ -6439,7 +6632,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -6476,7 +6669,7 @@
         <v>34</v>
       </c>
       <c r="N117" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O117" t="s">
         <v>28</v>
@@ -6484,13 +6677,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D118" t="s">
         <v>30</v>
@@ -6521,7 +6714,7 @@
         <v>51</v>
       </c>
       <c r="N118" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O118" t="s">
         <v>28</v>
@@ -6529,7 +6722,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
@@ -6566,7 +6759,7 @@
         <v>51</v>
       </c>
       <c r="N119" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O119" t="s">
         <v>28</v>
@@ -6574,16 +6767,16 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -6611,7 +6804,7 @@
         <v>51</v>
       </c>
       <c r="N120" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O120" t="s">
         <v>28</v>
@@ -6619,7 +6812,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -6656,7 +6849,7 @@
         <v>34</v>
       </c>
       <c r="N121" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O121" t="s">
         <v>28</v>
@@ -6664,7 +6857,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -6673,7 +6866,7 @@
         <v>47</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
@@ -6701,7 +6894,7 @@
         <v>51</v>
       </c>
       <c r="N122" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O122" t="s">
         <v>28</v>
@@ -6709,7 +6902,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -6746,7 +6939,7 @@
         <v>51</v>
       </c>
       <c r="N123" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O123" t="s">
         <v>28</v>
@@ -6754,7 +6947,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -6791,7 +6984,7 @@
         <v>34</v>
       </c>
       <c r="N124" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O124" t="s">
         <v>28</v>
@@ -6799,7 +6992,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -6836,7 +7029,7 @@
         <v>26</v>
       </c>
       <c r="N125" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O125" t="s">
         <v>28</v>
@@ -6844,13 +7037,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D126" t="s">
         <v>44</v>
@@ -6881,7 +7074,7 @@
         <v>51</v>
       </c>
       <c r="N126" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O126" t="s">
         <v>28</v>
@@ -6889,13 +7082,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D127" t="s">
         <v>30</v>
@@ -6907,7 +7100,7 @@
         <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" t="s">
@@ -6919,10 +7112,14 @@
       <c r="K127" t="s">
         <v>58</v>
       </c>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
+      <c r="L127" t="s">
+        <v>59</v>
+      </c>
+      <c r="M127" t="s">
+        <v>65</v>
+      </c>
       <c r="N127" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="O127" t="s">
         <v>28</v>
@@ -6930,7 +7127,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -6967,7 +7164,7 @@
         <v>51</v>
       </c>
       <c r="N128" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="O128" t="s">
         <v>28</v>
@@ -6975,7 +7172,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -7012,7 +7209,7 @@
         <v>34</v>
       </c>
       <c r="N129" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O129" t="s">
         <v>28</v>
@@ -7020,7 +7217,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -7057,7 +7254,7 @@
         <v>34</v>
       </c>
       <c r="N130" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O130" t="s">
         <v>28</v>
@@ -7065,16 +7262,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
@@ -7083,7 +7280,7 @@
         <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" t="s">
@@ -7095,10 +7292,14 @@
       <c r="K131" t="s">
         <v>58</v>
       </c>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
+      <c r="L131" t="s">
+        <v>59</v>
+      </c>
+      <c r="M131" t="s">
+        <v>65</v>
+      </c>
       <c r="N131" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O131" t="s">
         <v>28</v>
@@ -7106,7 +7307,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
@@ -7143,7 +7344,7 @@
         <v>26</v>
       </c>
       <c r="N132" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O132" t="s">
         <v>28</v>
@@ -7151,7 +7352,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -7188,7 +7389,7 @@
         <v>26</v>
       </c>
       <c r="N133" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O133" t="s">
         <v>28</v>
@@ -7210,10 +7411,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -7221,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
@@ -7229,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
@@ -7237,7 +7438,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
@@ -7245,7 +7446,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
@@ -7253,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
@@ -7261,7 +7462,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8">
@@ -7269,7 +7470,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
@@ -7277,7 +7478,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10">
@@ -7285,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
@@ -7293,7 +7494,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12">
@@ -7301,7 +7502,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
@@ -7309,7 +7510,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14">
@@ -7317,7 +7518,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15">
@@ -7325,7 +7526,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
